--- a/Other/provider_month_count.xlsx
+++ b/Other/provider_month_count.xlsx
@@ -3580,6 +3580,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="38.4615384615385" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
